--- a/data/defaultInputValues.xlsx
+++ b/data/defaultInputValues.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="AshokDefaults" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t xml:space="preserve">modelType</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">replicates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increments</t>
   </si>
   <si>
     <t xml:space="preserve">SIR</t>
@@ -305,10 +308,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S1048576"/>
+  <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="148" zoomScaleNormal="148" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="148" zoomScaleNormal="148" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -377,10 +380,13 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0</v>
@@ -421,7 +427,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>0</v>
@@ -463,7 +469,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0</v>
@@ -505,7 +511,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0</v>
@@ -549,7 +555,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0</v>
@@ -594,7 +600,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0</v>
@@ -642,7 +648,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>0</v>
@@ -689,7 +695,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0</v>
@@ -737,7 +743,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>0</v>
@@ -788,7 +794,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>0</v>

--- a/data/defaultInputValues.xlsx
+++ b/data/defaultInputValues.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">stochastic</t>
   </si>
   <si>
-    <t xml:space="preserve">vitalStatistics</t>
+    <t xml:space="preserve">vitalDynamics</t>
   </si>
   <si>
     <t xml:space="preserve">massAction</t>
@@ -311,7 +311,7 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="148" zoomScaleNormal="148" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -380,7 +380,7 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -484,7 +484,7 @@
         <v>0.00178</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.73</v>
+        <v>0.00273</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>

--- a/data/defaultInputValues.xlsx
+++ b/data/defaultInputValues.xlsx
@@ -477,7 +477,7 @@
   <dimension ref="A1:T49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="148" zoomScaleNormal="148" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -550,7 +550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -655,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -710,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -765,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -823,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>

--- a/data/defaultInputValues.xlsx
+++ b/data/defaultInputValues.xlsx
@@ -476,8 +476,8 @@
   </sheetPr>
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="148" zoomScaleNormal="148" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q26" activeCellId="0" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -572,14 +572,8 @@
       <c r="I2" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J2" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="3" t="n">
         <v>50</v>
       </c>
@@ -624,14 +618,8 @@
       <c r="I3" s="3" t="n">
         <v>0.0476</v>
       </c>
-      <c r="J3" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
       <c r="L3" s="3" t="n">
         <v>499</v>
       </c>
@@ -677,14 +665,8 @@
       <c r="I4" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J4" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="3" t="n">
         <v>50</v>
       </c>
@@ -732,14 +714,8 @@
       <c r="I5" s="3" t="n">
         <v>0.0476</v>
       </c>
-      <c r="J5" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="3" t="n">
         <v>499</v>
       </c>
@@ -790,14 +766,8 @@
       <c r="I6" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J6" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K6" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="3" t="n">
         <v>50</v>
       </c>
@@ -848,14 +818,8 @@
       <c r="I7" s="3" t="n">
         <v>0.0476</v>
       </c>
-      <c r="J7" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K7" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="3" t="n">
         <v>499</v>
       </c>
@@ -907,14 +871,8 @@
       <c r="I8" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J8" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K8" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="3" t="n">
         <v>50</v>
       </c>
@@ -968,14 +926,8 @@
       <c r="I9" s="3" t="n">
         <v>0.0476</v>
       </c>
-      <c r="J9" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K9" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
       <c r="L9" s="3" t="n">
         <v>499</v>
       </c>
@@ -1029,14 +981,8 @@
       <c r="I10" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J10" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K10" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="3" t="n">
         <v>50</v>
       </c>
@@ -1085,14 +1031,8 @@
       <c r="I11" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J11" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K11" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="3" t="n">
         <v>50</v>
       </c>
@@ -1141,14 +1081,8 @@
       <c r="I12" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J12" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K12" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="3" t="n">
         <v>50</v>
       </c>
@@ -1199,14 +1133,8 @@
       <c r="I13" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J13" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K13" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="3" t="n">
         <v>50</v>
       </c>
@@ -1251,14 +1179,8 @@
       <c r="F14" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J14" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K14" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="3" t="n">
         <v>499</v>
       </c>
@@ -1298,14 +1220,8 @@
       <c r="F15" s="3" t="n">
         <v>0.04</v>
       </c>
-      <c r="J15" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K15" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="3" t="n">
         <v>997</v>
       </c>
@@ -1344,14 +1260,8 @@
       <c r="F16" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J16" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K16" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="3" t="n">
         <v>499</v>
       </c>
@@ -1393,14 +1303,8 @@
       <c r="F17" s="3" t="n">
         <v>0.04</v>
       </c>
-      <c r="J17" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K17" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
       <c r="L17" s="3" t="n">
         <v>997</v>
       </c>
@@ -1445,14 +1349,8 @@
       <c r="G18" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="J18" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K18" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="3" t="n">
         <v>499</v>
       </c>
@@ -1498,14 +1396,8 @@
       <c r="G19" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="J19" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K19" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
       <c r="L19" s="3" t="n">
         <v>997</v>
       </c>
@@ -1550,14 +1442,8 @@
       <c r="G20" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="J20" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K20" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="3" t="n">
         <v>499</v>
       </c>
@@ -1605,14 +1491,8 @@
       <c r="G21" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="J21" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K21" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
       <c r="L21" s="3" t="n">
         <v>997</v>
       </c>
@@ -1660,14 +1540,8 @@
       <c r="H22" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="J22" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K22" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
       <c r="L22" s="3" t="n">
         <v>990</v>
       </c>
@@ -1710,14 +1584,8 @@
       <c r="H23" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="J23" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K23" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
       <c r="L23" s="3" t="n">
         <v>990</v>
       </c>
@@ -1760,14 +1628,8 @@
       <c r="H24" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="J24" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K24" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="3" t="n">
         <v>990</v>
       </c>
@@ -1812,14 +1674,8 @@
       <c r="H25" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="J25" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K25" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
       <c r="L25" s="3" t="n">
         <v>990</v>
       </c>
@@ -1856,45 +1712,39 @@
         <v>0</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>0.5</v>
+        <v>0.08</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J26" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K26" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="3" t="n">
-        <v>50</v>
+        <v>499</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="3" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>53</v>
+        <v>500</v>
       </c>
       <c r="R26" s="3" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="T26" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>20</v>
       </c>
@@ -1916,14 +1766,8 @@
       <c r="I27" s="3" t="n">
         <v>0.0476</v>
       </c>
-      <c r="J27" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K27" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
       <c r="L27" s="3" t="n">
         <v>499</v>
       </c>
@@ -1947,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>20</v>
       </c>
@@ -1969,14 +1813,8 @@
       <c r="I28" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J28" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K28" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="3" t="n">
         <v>50</v>
       </c>
@@ -2002,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>20</v>
       </c>
@@ -2024,14 +1862,8 @@
       <c r="I29" s="3" t="n">
         <v>0.0476</v>
       </c>
-      <c r="J29" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K29" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
       <c r="L29" s="3" t="n">
         <v>499</v>
       </c>
@@ -2057,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>21</v>
       </c>
@@ -2082,14 +1914,8 @@
       <c r="I30" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J30" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K30" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
       <c r="L30" s="3" t="n">
         <v>50</v>
       </c>
@@ -2115,7 +1941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
         <v>21</v>
       </c>
@@ -2140,14 +1966,8 @@
       <c r="I31" s="3" t="n">
         <v>0.0476</v>
       </c>
-      <c r="J31" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K31" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
       <c r="L31" s="3" t="n">
         <v>499</v>
       </c>
@@ -2174,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
@@ -2199,14 +2019,8 @@
       <c r="I32" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J32" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K32" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
       <c r="L32" s="3" t="n">
         <v>50</v>
       </c>
@@ -2235,7 +2049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
@@ -2260,14 +2074,8 @@
       <c r="I33" s="3" t="n">
         <v>0.0476</v>
       </c>
-      <c r="J33" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K33" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
       <c r="L33" s="3" t="n">
         <v>499</v>
       </c>
@@ -2296,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
         <v>22</v>
       </c>
@@ -2321,14 +2129,8 @@
       <c r="I34" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J34" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K34" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
       <c r="L34" s="3" t="n">
         <v>50</v>
       </c>
@@ -2352,7 +2154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>22</v>
       </c>
@@ -2377,14 +2179,8 @@
       <c r="I35" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J35" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K35" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
       <c r="L35" s="3" t="n">
         <v>50</v>
       </c>
@@ -2408,7 +2204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
         <v>22</v>
       </c>
@@ -2433,14 +2229,8 @@
       <c r="I36" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J36" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K36" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
       <c r="L36" s="3" t="n">
         <v>50</v>
       </c>
@@ -2466,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
@@ -2491,14 +2281,8 @@
       <c r="I37" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J37" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K37" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
       <c r="L37" s="3" t="n">
         <v>50</v>
       </c>
@@ -2524,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>23</v>
       </c>
@@ -2543,14 +2327,8 @@
       <c r="F38" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J38" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K38" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
       <c r="L38" s="3" t="n">
         <v>499</v>
       </c>
@@ -2571,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
         <v>23</v>
       </c>
@@ -2590,14 +2368,8 @@
       <c r="F39" s="3" t="n">
         <v>0.04</v>
       </c>
-      <c r="J39" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K39" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
       <c r="L39" s="3" t="n">
         <v>997</v>
       </c>
@@ -2617,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
         <v>23</v>
       </c>
@@ -2636,14 +2408,8 @@
       <c r="F40" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J40" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K40" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
       <c r="L40" s="3" t="n">
         <v>499</v>
       </c>
@@ -2666,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
         <v>23</v>
       </c>
@@ -2685,14 +2451,8 @@
       <c r="F41" s="3" t="n">
         <v>0.04</v>
       </c>
-      <c r="J41" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K41" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
       <c r="L41" s="3" t="n">
         <v>997</v>
       </c>
@@ -2715,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
         <v>24</v>
       </c>
@@ -2737,14 +2497,8 @@
       <c r="G42" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="J42" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K42" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
       <c r="L42" s="3" t="n">
         <v>499</v>
       </c>
@@ -2768,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
         <v>24</v>
       </c>
@@ -2790,14 +2544,8 @@
       <c r="G43" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="J43" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K43" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
       <c r="L43" s="3" t="n">
         <v>997</v>
       </c>
@@ -2820,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
@@ -2842,14 +2590,8 @@
       <c r="G44" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="J44" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K44" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
       <c r="L44" s="3" t="n">
         <v>499</v>
       </c>
@@ -2875,7 +2617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
         <v>24</v>
       </c>
@@ -2897,14 +2639,8 @@
       <c r="G45" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="J45" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K45" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
       <c r="L45" s="3" t="n">
         <v>997</v>
       </c>
@@ -2930,7 +2666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
         <v>25</v>
       </c>
@@ -2952,14 +2688,8 @@
       <c r="H46" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="J46" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K46" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
       <c r="L46" s="3" t="n">
         <v>990</v>
       </c>
@@ -2980,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
         <v>25</v>
       </c>
@@ -3002,14 +2732,8 @@
       <c r="H47" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="J47" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K47" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
       <c r="L47" s="3" t="n">
         <v>990</v>
       </c>
@@ -3030,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
@@ -3052,14 +2776,8 @@
       <c r="H48" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="J48" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K48" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
       <c r="L48" s="3" t="n">
         <v>990</v>
       </c>
@@ -3082,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
         <v>25</v>
       </c>
@@ -3104,14 +2822,8 @@
       <c r="H49" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="J49" s="3" t="n">
-        <f aca="false">2.4*0.5</f>
-        <v>1.2</v>
-      </c>
-      <c r="K49" s="3" t="n">
-        <f aca="false">8.76/1000</f>
-        <v>0.00876</v>
-      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
       <c r="L49" s="3" t="n">
         <v>990</v>
       </c>
